--- a/Finflux Automation Excels/Client/5043-CompondingPenalityCharge-writeoff.xlsx
+++ b/Finflux Automation Excels/Client/5043-CompondingPenalityCharge-writeoff.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="5"/>
@@ -243,9 +243,6 @@
     <t>% Loan Amount + Interest</t>
   </si>
   <si>
-    <t>$11.67</t>
-  </si>
-  <si>
     <t>$0</t>
   </si>
   <si>
@@ -265,6 +262,9 @@
   </si>
   <si>
     <t>Accrual</t>
+  </si>
+  <si>
+    <t>$9.24</t>
   </si>
 </sst>
 </file>
@@ -888,7 +888,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2">
         <v>42095</v>
@@ -896,18 +896,18 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3" s="8" t="s">
         <v>77</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -920,7 +920,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -950,14 +950,14 @@
         <v>5000</v>
       </c>
       <c r="B2" s="12">
-        <v>3463.74</v>
+        <v>3466.18</v>
       </c>
       <c r="C2" s="13"/>
       <c r="D2" s="13">
         <v>0</v>
       </c>
       <c r="E2" s="12">
-        <v>1536.26</v>
+        <v>1533.82</v>
       </c>
       <c r="F2" s="13">
         <v>0</v>
@@ -965,10 +965,10 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
-        <v>148.22999999999999</v>
+        <v>148.13999999999999</v>
       </c>
       <c r="B3" s="13">
-        <v>124.59</v>
+        <v>124.58</v>
       </c>
       <c r="C3" s="13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="E3" s="13">
-        <v>23.64</v>
+        <v>23.56</v>
       </c>
       <c r="F3" s="13">
         <v>0</v>
@@ -1005,10 +1005,10 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
-        <v>11.67</v>
+        <v>9.24</v>
       </c>
       <c r="B5" s="13">
-        <v>11.67</v>
+        <v>9.24</v>
       </c>
       <c r="C5" s="13">
         <v>0</v>
@@ -1033,7 +1033,7 @@
   <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,30 +1231,30 @@
         <v>1497.5</v>
       </c>
       <c r="H5" s="13">
-        <v>27.09</v>
+        <v>27.08</v>
       </c>
       <c r="I5" s="13">
         <v>0</v>
       </c>
       <c r="J5" s="13">
-        <v>11.67</v>
+        <v>9.24</v>
       </c>
       <c r="K5" s="13">
-        <v>899.39</v>
+        <v>896.96</v>
       </c>
       <c r="L5" s="12">
         <v>1824.56</v>
       </c>
       <c r="M5" s="12"/>
       <c r="N5" s="13">
-        <v>963.93</v>
+        <v>963.92</v>
       </c>
       <c r="O5" s="13">
         <v>0</v>
       </c>
       <c r="P5" s="13"/>
       <c r="Q5" s="13">
-        <v>38.76</v>
+        <v>36.32</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -1270,13 +1270,13 @@
       <c r="D6" s="13"/>
       <c r="E6" s="13"/>
       <c r="F6" s="13">
-        <v>742.86</v>
+        <v>742.89</v>
       </c>
       <c r="G6" s="13">
-        <v>754.64</v>
+        <v>754.61</v>
       </c>
       <c r="H6" s="13">
-        <v>15.15</v>
+        <v>15.12</v>
       </c>
       <c r="I6" s="13">
         <v>0</v>
@@ -1315,13 +1315,13 @@
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13">
-        <v>749.94</v>
+        <v>749.96</v>
       </c>
       <c r="G7" s="13">
-        <v>4.7</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="H7" s="13">
-        <v>8.07</v>
+        <v>8.0500000000000007</v>
       </c>
       <c r="I7" s="13">
         <v>0</v>
@@ -1360,13 +1360,13 @@
       <c r="D8" s="13"/>
       <c r="E8" s="13"/>
       <c r="F8" s="13">
-        <v>4.7</v>
+        <v>4.6500000000000004</v>
       </c>
       <c r="G8" s="13">
         <v>0</v>
       </c>
       <c r="H8" s="13">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="I8" s="13">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="13">
-        <v>5.12</v>
+        <v>5.04</v>
       </c>
       <c r="L8" s="13">
         <v>0</v>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="P8" s="13"/>
       <c r="Q8" s="13">
-        <v>5.12</v>
+        <v>5.04</v>
       </c>
     </row>
   </sheetData>
@@ -1402,7 +1402,7 @@
   <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,7 +1444,7 @@
     </row>
     <row r="2" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="13">
-        <v>1224</v>
+        <v>382</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>58</v>
@@ -1456,19 +1456,19 @@
         <v>59</v>
       </c>
       <c r="E2" s="13">
-        <v>43.43</v>
+        <v>41</v>
       </c>
       <c r="F2" s="13"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="12">
-        <v>1534.24</v>
+        <v>1531.81</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="13">
-        <v>1223</v>
+        <v>381</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>58</v>
@@ -1477,10 +1477,10 @@
         <v>42094</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E3" s="13">
-        <v>43.43</v>
+        <v>41</v>
       </c>
       <c r="F3" s="13"/>
       <c r="G3" s="13"/>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="13">
-        <v>1222</v>
+        <v>380</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>58</v>
@@ -1516,7 +1516,7 @@
     </row>
     <row r="5" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="13">
-        <v>1219</v>
+        <v>377</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>58</v>
@@ -1540,7 +1540,7 @@
     </row>
     <row r="6" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="13">
-        <v>1218</v>
+        <v>376</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>58</v>
@@ -1549,7 +1549,7 @@
         <v>42063</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E6" s="13">
         <v>46.43</v>
@@ -1564,7 +1564,7 @@
     </row>
     <row r="7" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="13">
-        <v>1217</v>
+        <v>375</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>58</v>
@@ -1588,7 +1588,7 @@
     </row>
     <row r="8" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="13">
-        <v>1216</v>
+        <v>374</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>58</v>
@@ -1597,7 +1597,7 @@
         <v>42035</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E8" s="13">
         <v>44.38</v>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="9" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="13">
-        <v>1215</v>
+        <v>373</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>58</v>
@@ -1644,12 +1644,12 @@
   <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1698,7 +1698,7 @@
       <c r="J2" s="10"/>
       <c r="K2" s="10"/>
     </row>
-    <row r="3" spans="1:11" ht="60" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>68</v>
       </c>
@@ -1716,16 +1716,16 @@
         <v>71</v>
       </c>
       <c r="G3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="J3" s="13" t="s">
         <v>72</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>
